--- a/biology/Biochimie/Oxydase/Oxydase.xlsx
+++ b/biology/Biochimie/Oxydase/Oxydase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une oxydase est une enzyme catalysant une réaction d'oxydo-réduction impliquant une molécule de dioxygène (O2) comme accepteur d'électron. Dans ces réactions, l'oxygène est réduit en eau (H2O) ou en peroxyde d'hydrogène (H2O2).
 Les oxydases sont une sous-classe des oxydo-réductases.
@@ -512,7 +524,9 @@
           <t>En bactériologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme d'oxydase désigne une enzyme recherchée en bactériologie systématique. On dit qu'une bactérie est oxydase + si un fragment de culture est capable d'oxyder la forme réduite de dérivés N-méthylés du paraphénylènediamine en semi-quinone (rose violacé).
 La présence d'oxydase serait liée à celle dans la chaîne respiratoire du complexe enzymatique IV : cytochrome-oxydase. Certains bactériologistes préfèrent parler de cytochrome-oxydase plutôt que d'oxydase.
@@ -557,7 +571,9 @@
           <t>Autres oxydases</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La lysyl oxydase est une enzyme contenant du cuivre et oxydant la lysine, lors du pontage entre le procollagène et la proélastine dans le tissu conjonctif.
 Glutathion oxydase
